--- a/Telematics_Protus_file.xlsx
+++ b/Telematics_Protus_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecv-my.sharepoint.com/personal/sdas15_vecvnet_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdas15\OneDrive - VE Commercial Vehicles Ltd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="101">
   <si>
     <t>Sr no</t>
   </si>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">Verification </t>
   </si>
   <si>
-    <t>Pro 8035XM</t>
-  </si>
-  <si>
     <t>Roadmap for DR/PM</t>
   </si>
   <si>
@@ -329,6 +326,21 @@
   </si>
   <si>
     <t>MC2HCSRC0PB090274</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>LMD</t>
+  </si>
+  <si>
+    <t>Pro 6019</t>
+  </si>
+  <si>
+    <t>Pro2118</t>
+  </si>
+  <si>
+    <t>EV</t>
   </si>
 </sst>
 </file>
@@ -778,7 +790,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -803,40 +815,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -844,19 +856,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="9">
         <v>45603</v>
@@ -869,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
@@ -886,19 +898,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="9">
         <v>45603</v>
@@ -911,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>3</v>
@@ -928,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="9">
         <v>45603</v>
@@ -953,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>3</v>
@@ -970,19 +982,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="9">
         <v>45603</v>
@@ -994,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>3</v>
@@ -1011,19 +1023,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9">
         <v>45616</v>
@@ -1033,16 +1045,16 @@
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1050,19 +1062,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="9">
         <v>45616</v>
@@ -1072,16 +1084,16 @@
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1089,19 +1101,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9">
         <v>45616</v>
@@ -1111,16 +1123,16 @@
         <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1128,19 +1140,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="9">
         <v>45616</v>
@@ -1150,16 +1162,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1167,19 +1179,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9">
         <v>45616</v>
@@ -1189,16 +1201,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1206,19 +1218,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9">
         <v>45616</v>
@@ -1228,16 +1240,16 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1245,19 +1257,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="9">
         <v>45616</v>
@@ -1267,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1284,19 +1296,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="9">
         <v>45615</v>
@@ -1306,16 +1318,16 @@
         <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1323,19 +1335,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="9">
         <v>45615</v>
@@ -1345,16 +1357,16 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1362,19 +1374,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="9">
         <v>45623</v>
@@ -1384,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>2</v>
@@ -1401,19 +1413,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="9">
         <v>45623</v>
@@ -1423,13 +1435,13 @@
         <v>12</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>2</v>
@@ -1440,19 +1452,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="9">
         <v>45623</v>
@@ -1462,13 +1474,13 @@
         <v>12</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>2</v>
@@ -1479,19 +1491,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="9">
         <v>45623</v>
@@ -1501,13 +1513,13 @@
         <v>12</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>2</v>
@@ -1518,19 +1530,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="9">
         <v>45623</v>
@@ -1540,13 +1552,13 @@
         <v>12</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>2</v>
@@ -1557,19 +1569,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="9">
         <v>45624</v>
@@ -1581,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>4</v>
@@ -1598,19 +1610,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="9">
         <v>45624</v>
@@ -1622,10 +1634,10 @@
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>4</v>
@@ -1639,19 +1651,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="9">
         <v>45624</v>
@@ -1663,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>2</v>
@@ -1680,19 +1692,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="9">
         <v>45624</v>
@@ -1704,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>2</v>
@@ -1721,19 +1733,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9">
         <v>45624</v>
@@ -1745,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>2</v>
@@ -1762,19 +1774,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="9">
         <v>45624</v>
@@ -1784,13 +1796,13 @@
         <v>11</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>2</v>
@@ -1801,19 +1813,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="9">
         <v>45624</v>
@@ -1823,13 +1835,13 @@
         <v>11</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>2</v>
@@ -1840,19 +1852,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="9">
         <v>45624</v>
@@ -1862,13 +1874,13 @@
         <v>11</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>2</v>
@@ -1879,19 +1891,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="9">
         <v>45627</v>
@@ -1901,16 +1913,16 @@
         <v>8</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42">
@@ -1918,19 +1930,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="9">
         <v>45627</v>
@@ -1940,16 +1952,16 @@
         <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
@@ -1957,19 +1969,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="9">
         <v>45627</v>
@@ -1979,16 +1991,16 @@
         <v>8</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="60.75" customHeight="1">
@@ -1996,19 +2008,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="9">
         <v>45627</v>
@@ -2018,16 +2030,16 @@
         <v>8</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="60.75" customHeight="1">
@@ -2035,19 +2047,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="9">
         <v>45627</v>
@@ -2057,15 +2069,17 @@
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M32"/>

--- a/Telematics_Protus_file.xlsx
+++ b/Telematics_Protus_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdas15\OneDrive - VE Commercial Vehicles Ltd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecv-my.sharepoint.com/personal/sdas15_vecvnet_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{913CC99B-7A8D-465E-812F-48C4450D5DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prouts details" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prouts details'!$A$1:$M$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,16 +44,127 @@
     <t>Sr no</t>
   </si>
   <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Chassis Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTC Code </t>
+  </si>
+  <si>
+    <t>DTC Name</t>
+  </si>
+  <si>
+    <t>DTC Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date </t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protus Number </t>
   </si>
   <si>
+    <t>Protus Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model </t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PE096303</t>
+  </si>
+  <si>
+    <t>P20E892</t>
+  </si>
+  <si>
+    <t>Reductant Pressure Too Low</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Supal Solanki</t>
+  </si>
+  <si>
+    <t>VE2188_T-Endurance-C-0223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification </t>
+  </si>
+  <si>
     <t>Pro 6048T</t>
   </si>
   <si>
-    <t>VE2188_T-Endurance-C-0223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification </t>
+    <t>MC2HCSRC0PE097377</t>
+  </si>
+  <si>
+    <t>P202D7A</t>
+  </si>
+  <si>
+    <t>Reductant Leakage</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PD094477</t>
+  </si>
+  <si>
+    <t>P11450</t>
+  </si>
+  <si>
+    <t>Adblue Level is below 10%</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PD094476</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PE096305</t>
+  </si>
+  <si>
+    <t>P048013</t>
+  </si>
+  <si>
+    <t>E-Viscous FANs actuator signal Open Circuit</t>
+  </si>
+  <si>
+    <t>Ashish Kumar Paroha</t>
+  </si>
+  <si>
+    <t>VE2188_T-Endurance-P-0076</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PB090278</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>MC2JACRC0RDB00003</t>
+  </si>
+  <si>
+    <t>P190512</t>
+  </si>
+  <si>
+    <t>AUX Air Compressor current sensor fault</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Chandan Kumar Parida</t>
+  </si>
+  <si>
+    <t>VE1430-BS VI seeding-C-0055</t>
   </si>
   <si>
     <t>Roadmap for DR/PM</t>
@@ -61,292 +173,181 @@
     <t>Titan</t>
   </si>
   <si>
-    <t>VE1430-BS VI seeding-C-0055</t>
-  </si>
-  <si>
-    <t>AUX Air Compressor current sensor fault</t>
+    <t>MC2JACRC0RDB00007</t>
+  </si>
+  <si>
+    <t>P140116</t>
+  </si>
+  <si>
+    <t>HVIL UnderVoltage</t>
   </si>
   <si>
     <t>Ramakant Pandey</t>
   </si>
   <si>
-    <t>HVIL UnderVoltage</t>
-  </si>
-  <si>
     <t>VE1430-BS VI seeding-C-0058</t>
   </si>
   <si>
+    <t>MC2JACRC0RDB00005</t>
+  </si>
+  <si>
+    <t>MC2JACRC0RDB00008</t>
+  </si>
+  <si>
+    <t>MC2JACRC0RDB00009</t>
+  </si>
+  <si>
+    <t>P172313</t>
+  </si>
+  <si>
+    <t>Low Side LS3 HVIL Relay Open Circuit</t>
+  </si>
+  <si>
     <t>VE1430-BS VI seeding-C-0059</t>
   </si>
   <si>
-    <t>Low Side LS3 HVIL Relay Open Circuit</t>
+    <t>MC2JACRC0REB00009</t>
+  </si>
+  <si>
+    <t>U1C019A</t>
+  </si>
+  <si>
+    <t>BCS CAN message timeout</t>
   </si>
   <si>
     <t>VE1430-Endurance-C-0046</t>
   </si>
   <si>
-    <t>BCS CAN message timeout</t>
+    <t>MC2HCSRC0PB090273</t>
+  </si>
+  <si>
+    <t>P107C14</t>
+  </si>
+  <si>
+    <t>Range inhibitor valve malfuctioning</t>
+  </si>
+  <si>
+    <t>Hemant Jewalkar</t>
   </si>
   <si>
     <t>VE2188_T-Endurance-P-0075</t>
   </si>
   <si>
-    <t>VE2188_T-Endurance-P-0076</t>
+    <t>MC2HCSRC0PB090274</t>
+  </si>
+  <si>
+    <t>P02190</t>
+  </si>
+  <si>
+    <t>Engine RPM exceeds threshold 3900RPM.</t>
+  </si>
+  <si>
+    <t>P020112</t>
+  </si>
+  <si>
+    <t>Bank 1 of Injector Short Circuit to High or Battery</t>
+  </si>
+  <si>
+    <t>Hardik Narendrabhai Lakhlani</t>
   </si>
   <si>
     <t>VE2188_T-Endurance-C-0229</t>
   </si>
   <si>
+    <t>P020212</t>
+  </si>
+  <si>
+    <t>Bank 2 of Injector Short Circuit to High or Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P020312</t>
+  </si>
+  <si>
+    <t>Bank 3 of Injector Short Circuit to High or Battery</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PE0969605</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P040397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR Control Component or System Operation failure </t>
+  </si>
+  <si>
     <t>VE2188_T-Endurance-C-0228</t>
   </si>
   <si>
+    <t>P040313</t>
+  </si>
+  <si>
+    <t>EGR Control Open Circuit</t>
+  </si>
+  <si>
+    <t>P228F00</t>
+  </si>
+  <si>
+    <t>Open load error for EGRVlv H-Bridge powerstage</t>
+  </si>
+  <si>
+    <t>LMD</t>
+  </si>
+  <si>
+    <t>MC2DALRC0PC005349</t>
+  </si>
+  <si>
+    <t>P245213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Particulate Filter Pressure Sensor Open Ciruit</t>
+  </si>
+  <si>
     <t>VE2188_T-BS VI seeding-C-0046</t>
   </si>
   <si>
+    <t>Pro2118</t>
+  </si>
+  <si>
+    <t>P10E10</t>
+  </si>
+  <si>
+    <t>Affertreatment 1 Diesel Particulate Filter Differential Pressure Data Valid But Above Normal</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>MC2HCSRC0PE097378</t>
+  </si>
+  <si>
+    <t>P204F93</t>
+  </si>
+  <si>
+    <t>Reductant Return No Flow Detected</t>
+  </si>
+  <si>
     <t>VE2188_T-Endurance-C-0230</t>
   </si>
   <si>
-    <t xml:space="preserve">Model </t>
-  </si>
-  <si>
-    <t>DTC Name</t>
-  </si>
-  <si>
-    <t>Protus Stage</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date </t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>P20E892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTC Code </t>
-  </si>
-  <si>
-    <t>P048013</t>
-  </si>
-  <si>
-    <t>P020112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  P020312</t>
-  </si>
-  <si>
-    <t>P020212</t>
-  </si>
-  <si>
-    <t>P228F00</t>
-  </si>
-  <si>
-    <t>P040313</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P040397</t>
+    <t>Pro 6019</t>
   </si>
   <si>
     <t xml:space="preserve">P10CE97 </t>
   </si>
   <si>
-    <t>P204F93</t>
-  </si>
-  <si>
-    <t>P10E10</t>
-  </si>
-  <si>
-    <t>P245213</t>
-  </si>
-  <si>
-    <t>P190512</t>
-  </si>
-  <si>
-    <t>P140116</t>
-  </si>
-  <si>
-    <t>P172313</t>
-  </si>
-  <si>
-    <t>U1C019A</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PE096303</t>
-  </si>
-  <si>
-    <t>MC2JACRC0RDB00003</t>
-  </si>
-  <si>
-    <t>MC2JACRC0RDB00007</t>
-  </si>
-  <si>
-    <t>MC2JACRC0RDB00009</t>
-  </si>
-  <si>
-    <t>MC2JACRC0REB00009</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PB090273</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PE096305</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PD094476</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PE0969605</t>
-  </si>
-  <si>
-    <t>MC2DALRC0PC005349</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PE097378</t>
-  </si>
-  <si>
-    <t>Supal Solanki</t>
-  </si>
-  <si>
-    <t>Chandan Kumar Parida</t>
-  </si>
-  <si>
-    <t>Hemant Jewalkar</t>
-  </si>
-  <si>
-    <t>Ashish Kumar Paroha</t>
-  </si>
-  <si>
-    <t>Hardik Narendrabhai Lakhlani</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Chassis Number</t>
-  </si>
-  <si>
-    <t>DTC Status</t>
-  </si>
-  <si>
-    <t>Reductant Pressure Too Low</t>
-  </si>
-  <si>
-    <t>Range inhibitor valve malfuctioning</t>
-  </si>
-  <si>
-    <t>E-Viscous FANs actuator signal Open Circuit</t>
-  </si>
-  <si>
-    <t>Bank 1 of Injector Short Circuit to High or Battery</t>
-  </si>
-  <si>
-    <t>Bank 2 of Injector Short Circuit to High or Battery</t>
-  </si>
-  <si>
-    <t>Bank 3 of Injector Short Circuit to High or Battery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR Control Component or System Operation failure </t>
-  </si>
-  <si>
-    <t>P107C14</t>
-  </si>
-  <si>
-    <t>EGR Control Open Circuit</t>
-  </si>
-  <si>
-    <t>Open load error for EGRVlv H-Bridge powerstage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Particulate Filter Pressure Sensor Open Ciruit</t>
-  </si>
-  <si>
-    <t>Affertreatment 1 Diesel Particulate Filter Differential Pressure Data Valid But Above Normal</t>
-  </si>
-  <si>
-    <t>Reductant Return No Flow Detected</t>
-  </si>
-  <si>
     <t>Reductant System Performance Bank 1 error</t>
   </si>
   <si>
-    <t>MC2JACRC0RDB00005</t>
-  </si>
-  <si>
-    <t>MC2JACRC0RDB00008</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PE097377</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PD094477</t>
-  </si>
-  <si>
-    <t>P202D7A</t>
-  </si>
-  <si>
-    <t>Reductant Leakage</t>
-  </si>
-  <si>
-    <t>P11450</t>
-  </si>
-  <si>
-    <t>Adblue Level is below 10%</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PB090278</t>
-  </si>
-  <si>
     <t>MC2HCSRC0PE096304</t>
   </si>
   <si>
     <t>Reductant System Performance Bank 1</t>
-  </si>
-  <si>
-    <t>P02190</t>
-  </si>
-  <si>
-    <t>Engine RPM exceeds threshold 3900RPM.</t>
-  </si>
-  <si>
-    <t>MC2HCSRC0PB090274</t>
-  </si>
-  <si>
-    <t>BUS</t>
-  </si>
-  <si>
-    <t>LMD</t>
-  </si>
-  <si>
-    <t>Pro 6019</t>
-  </si>
-  <si>
-    <t>Pro2118</t>
-  </si>
-  <si>
-    <t>EV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -786,28 +787,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.4140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -815,40 +816,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -856,19 +857,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" s="9">
         <v>45603</v>
@@ -881,16 +882,16 @@
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -898,19 +899,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9">
         <v>45603</v>
@@ -923,16 +924,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -940,19 +941,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9">
         <v>45603</v>
@@ -965,16 +966,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -982,19 +983,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G5" s="9">
         <v>45603</v>
@@ -1006,114 +1007,118 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.95">
+      <c r="A6" s="2">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45624</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45628</v>
+      </c>
+      <c r="I6" s="2">
         <v>4</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9">
-        <v>45616</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>19</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.95">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="9">
-        <v>45616</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>45624</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45628</v>
+      </c>
       <c r="I7" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9">
         <v>45616</v>
@@ -1123,36 +1128,36 @@
         <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9">
         <v>45616</v>
@@ -1162,36 +1167,36 @@
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9">
         <v>45616</v>
@@ -1201,36 +1206,36 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9">
         <v>45616</v>
@@ -1240,36 +1245,36 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9">
         <v>45616</v>
@@ -1279,192 +1284,192 @@
         <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G13" s="9">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G14" s="9">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G15" s="9">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G16" s="9">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G17" s="9">
         <v>45623</v>
@@ -1477,33 +1482,33 @@
         <v>62</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G18" s="9">
         <v>45623</v>
@@ -1516,33 +1521,33 @@
         <v>62</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="28">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>94</v>
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G19" s="9">
         <v>45623</v>
@@ -1555,115 +1560,111 @@
         <v>62</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G20" s="9">
-        <v>45624</v>
-      </c>
-      <c r="H20" s="9">
-        <v>45628</v>
-      </c>
+        <v>45623</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>4</v>
+      <c r="L20" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="27.95">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G21" s="9">
-        <v>45624</v>
-      </c>
-      <c r="H21" s="9">
-        <v>45628</v>
-      </c>
+        <v>45623</v>
+      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>4</v>
+      <c r="L21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="27.95">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9">
         <v>45624</v>
@@ -1675,36 +1676,36 @@
         <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="27.95">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G23" s="9">
         <v>45624</v>
@@ -1716,36 +1717,36 @@
         <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="27.95">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G24" s="9">
         <v>45624</v>
@@ -1757,36 +1758,36 @@
         <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="27.95">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G25" s="9">
         <v>45624</v>
@@ -1796,16 +1797,16 @@
         <v>11</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1813,19 +1814,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G26" s="9">
         <v>45624</v>
@@ -1835,36 +1836,36 @@
         <v>11</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="27.95">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G27" s="9">
         <v>45624</v>
@@ -1874,36 +1875,36 @@
         <v>11</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="27.95">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G28" s="9">
         <v>45627</v>
@@ -1913,16 +1914,16 @@
         <v>8</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42">
@@ -1930,19 +1931,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G29" s="9">
         <v>45627</v>
@@ -1952,16 +1953,16 @@
         <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
@@ -1969,19 +1970,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G30" s="9">
         <v>45627</v>
@@ -1991,16 +1992,16 @@
         <v>8</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="60.75" customHeight="1">
@@ -2008,19 +2009,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G31" s="9">
         <v>45627</v>
@@ -2030,16 +2031,16 @@
         <v>8</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="60.75" customHeight="1">
@@ -2047,19 +2048,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G32" s="9">
         <v>45627</v>
@@ -2069,36 +2070,36 @@
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M32"/>
+  <autoFilter ref="A1:M32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="K15" r:id="rId1" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K20" r:id="rId2" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
-    <hyperlink ref="K27" r:id="rId3" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608"/>
-    <hyperlink ref="K28" r:id="rId4" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.23228"/>
-    <hyperlink ref="K30" r:id="rId5" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522"/>
-    <hyperlink ref="K26" r:id="rId6" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608"/>
-    <hyperlink ref="K25" r:id="rId7" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608"/>
-    <hyperlink ref="K31" r:id="rId8" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522"/>
-    <hyperlink ref="K29" r:id="rId9" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.23228"/>
-    <hyperlink ref="K32" r:id="rId10" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522"/>
-    <hyperlink ref="K19" r:id="rId11" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K21" r:id="rId12" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
-    <hyperlink ref="K16" r:id="rId13" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K17" r:id="rId14" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K18" r:id="rId15" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
+    <hyperlink ref="K17" r:id="rId1" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K6" r:id="rId2" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K27" r:id="rId3" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K28" r:id="rId4" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.23228" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K30" r:id="rId5" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K26" r:id="rId6" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K25" r:id="rId7" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K31" r:id="rId8" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K29" r:id="rId9" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.23228" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K32" r:id="rId10" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K21" r:id="rId11" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K7" r:id="rId12" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K18" r:id="rId13" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K19" r:id="rId14" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K20" r:id="rId15" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telematics_Protus_file.xlsx
+++ b/Telematics_Protus_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdas15\OneDrive - VE Commercial Vehicles Ltd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssonakia1\Documents\GitHub\VaildOps_Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -419,6 +408,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,9 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -790,78 +779,78 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.4140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -876,31 +865,30 @@
       <c r="H2" s="9">
         <v>45608</v>
       </c>
-      <c r="I2" s="2">
-        <f>H2-G2</f>
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -918,31 +906,30 @@
       <c r="H3" s="9">
         <v>45608</v>
       </c>
-      <c r="I3" s="2">
-        <f>H3-G3</f>
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -960,34 +947,33 @@
       <c r="H4" s="9">
         <v>45608</v>
       </c>
-      <c r="I4" s="2">
-        <f>H4-G4</f>
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -1002,115 +988,119 @@
       <c r="H5" s="9">
         <v>45608</v>
       </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:13" ht="28">
+      <c r="A6" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45624</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45628</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28">
+      <c r="A7" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45624</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45628</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9">
-        <v>45616</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="9">
-        <v>45616</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
@@ -1118,32 +1108,32 @@
       <c r="G8" s="9">
         <v>45616</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>19</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>44</v>
@@ -1157,32 +1147,32 @@
       <c r="G9" s="9">
         <v>45616</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>83</v>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>44</v>
@@ -1196,38 +1186,38 @@
       <c r="G10" s="9">
         <v>45616</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>19</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -1235,38 +1225,38 @@
       <c r="G11" s="9">
         <v>45616</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>19</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
+      <c r="C12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -1274,190 +1264,190 @@
       <c r="G12" s="9">
         <v>45616</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45616</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2">
+    <row r="14" spans="1:13">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45616</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="9">
         <v>45615</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <v>20</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2">
+    <row r="16" spans="1:13">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="9">
         <v>45615</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
         <v>20</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2">
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="9">
-        <v>45623</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>12</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="9">
-        <v>45623</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1469,34 +1459,34 @@
       <c r="G17" s="9">
         <v>45623</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
         <v>12</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1508,38 +1498,38 @@
       <c r="G18" s="9">
         <v>45623</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
         <v>12</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>94</v>
+      <c r="C19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>26</v>
@@ -1547,116 +1537,112 @@
       <c r="G19" s="9">
         <v>45623</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
         <v>12</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>32</v>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G20" s="9">
-        <v>45624</v>
-      </c>
-      <c r="H20" s="9">
-        <v>45628</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="2" t="s">
+        <v>45623</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G21" s="9">
-        <v>45624</v>
-      </c>
-      <c r="H21" s="9">
-        <v>45628</v>
-      </c>
-      <c r="I21" s="2">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="2" t="s">
+        <v>45623</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>12</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="28">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1671,33 +1657,33 @@
       <c r="H22" s="9">
         <v>45632</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="28">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1712,30 +1698,30 @@
       <c r="H23" s="9">
         <v>45632</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>8</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="28">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -1753,30 +1739,30 @@
       <c r="H24" s="9">
         <v>45632</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>8</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="28">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -1791,31 +1777,31 @@
       <c r="G25" s="9">
         <v>45624</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
         <v>11</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -1830,34 +1816,34 @@
       <c r="G26" s="9">
         <v>45624</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
         <v>11</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="28">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1869,34 +1855,34 @@
       <c r="G27" s="9">
         <v>45624</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
         <v>11</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="L27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1908,34 +1894,34 @@
       <c r="G28" s="9">
         <v>45627</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
         <v>8</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="L28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -1947,34 +1933,34 @@
       <c r="G29" s="9">
         <v>45627</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="L29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1987,33 +1973,33 @@
         <v>45627</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>8</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -2026,33 +2012,33 @@
         <v>45627</v>
       </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>8</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2065,27 +2051,27 @@
         <v>45627</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>8</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="L32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M32"/>
   <hyperlinks>
-    <hyperlink ref="K15" r:id="rId1" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K20" r:id="rId2" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
+    <hyperlink ref="K17" r:id="rId1" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
+    <hyperlink ref="K6" r:id="rId2" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
     <hyperlink ref="K27" r:id="rId3" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29545.11608"/>
     <hyperlink ref="K28" r:id="rId4" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.23228"/>
     <hyperlink ref="K30" r:id="rId5" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522"/>
@@ -2094,11 +2080,11 @@
     <hyperlink ref="K31" r:id="rId8" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522"/>
     <hyperlink ref="K29" r:id="rId9" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.23228"/>
     <hyperlink ref="K32" r:id="rId10" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.25243.25522"/>
-    <hyperlink ref="K19" r:id="rId11" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K21" r:id="rId12" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
-    <hyperlink ref="K16" r:id="rId13" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K17" r:id="rId14" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
-    <hyperlink ref="K18" r:id="rId15" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
+    <hyperlink ref="K21" r:id="rId11" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
+    <hyperlink ref="K7" r:id="rId12" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
+    <hyperlink ref="K18" r:id="rId13" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
+    <hyperlink ref="K19" r:id="rId14" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
+    <hyperlink ref="K20" r:id="rId15" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telematics_Protus_file.xlsx
+++ b/Telematics_Protus_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Prouts details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prouts details'!$A$1:$M$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prouts details'!$A$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
   <si>
     <t>Sr no</t>
   </si>
@@ -41,12 +41,6 @@
     <t>VE2188_T-Endurance-C-0223</t>
   </si>
   <si>
-    <t xml:space="preserve">Verification </t>
-  </si>
-  <si>
-    <t>Roadmap for DR/PM</t>
-  </si>
-  <si>
     <t>Titan</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>DTC Name</t>
-  </si>
-  <si>
-    <t>Protus Stage</t>
   </si>
   <si>
     <t>Closed</t>
@@ -353,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +360,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -776,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -795,69 +777,65 @@
     <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.4140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="9">
         <v>45603</v>
@@ -869,36 +847,33 @@
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" s="9">
         <v>45603</v>
@@ -910,36 +885,33 @@
         <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>89</v>
+      <c r="E4" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9">
         <v>45603</v>
@@ -951,36 +923,33 @@
         <v>5</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="9">
         <v>45603</v>
@@ -992,36 +961,33 @@
         <v>5</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28">
+    <row r="6" spans="1:12" ht="28">
       <c r="A6" s="3">
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9">
         <v>45624</v>
@@ -1033,36 +999,33 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28">
+    <row r="7" spans="1:12" ht="28">
       <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="9">
         <v>45624</v>
@@ -1074,36 +1037,33 @@
         <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="9">
         <v>45616</v>
@@ -1113,36 +1073,33 @@
         <v>19</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9">
         <v>45616</v>
@@ -1152,36 +1109,33 @@
         <v>19</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="9">
         <v>45616</v>
@@ -1191,36 +1145,33 @@
         <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="9">
         <v>45616</v>
@@ -1230,36 +1181,33 @@
         <v>19</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="9">
         <v>45616</v>
@@ -1269,36 +1217,33 @@
         <v>19</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="9">
         <v>45616</v>
@@ -1308,36 +1253,33 @@
         <v>19</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="9">
         <v>45616</v>
@@ -1347,36 +1289,33 @@
         <v>19</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="9">
         <v>45615</v>
@@ -1386,36 +1325,33 @@
         <v>20</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="9">
         <v>45615</v>
@@ -1425,36 +1361,33 @@
         <v>20</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="9">
         <v>45623</v>
@@ -1464,36 +1397,33 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="9">
         <v>45623</v>
@@ -1503,36 +1433,33 @@
         <v>12</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="9">
         <v>45623</v>
@@ -1542,36 +1469,33 @@
         <v>12</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="9">
         <v>45623</v>
@@ -1581,36 +1505,33 @@
         <v>12</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28">
+    <row r="21" spans="1:12" ht="28">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" s="9">
         <v>45623</v>
@@ -1620,36 +1541,33 @@
         <v>12</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28">
+    <row r="22" spans="1:12" ht="28">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G22" s="9">
         <v>45624</v>
@@ -1661,36 +1579,33 @@
         <v>8</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="28">
+    <row r="23" spans="1:12" ht="28">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23" s="9">
         <v>45624</v>
@@ -1702,36 +1617,33 @@
         <v>8</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28">
+    <row r="24" spans="1:12" ht="28">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G24" s="9">
         <v>45624</v>
@@ -1743,36 +1655,33 @@
         <v>8</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28">
+    <row r="25" spans="1:12" ht="28">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" s="9">
         <v>45624</v>
@@ -1782,36 +1691,33 @@
         <v>11</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="9">
         <v>45624</v>
@@ -1821,36 +1727,33 @@
         <v>11</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28">
+    <row r="27" spans="1:12" ht="28">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" s="9">
         <v>45624</v>
@@ -1860,36 +1763,33 @@
         <v>11</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28">
+    <row r="28" spans="1:12" ht="28">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G28" s="9">
         <v>45627</v>
@@ -1899,36 +1799,33 @@
         <v>8</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="42">
+        <v>18</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="42">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G29" s="9">
         <v>45627</v>
@@ -1938,36 +1835,33 @@
         <v>8</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="33" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="33" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G30" s="9">
         <v>45627</v>
@@ -1977,36 +1871,33 @@
         <v>8</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="60.75" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60.75" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G31" s="9">
         <v>45627</v>
@@ -2016,36 +1907,33 @@
         <v>8</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="60.75" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="60.75" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" s="9">
         <v>45627</v>
@@ -2055,20 +1943,17 @@
         <v>8</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M32"/>
+  <autoFilter ref="A1:L32"/>
   <hyperlinks>
     <hyperlink ref="K17" r:id="rId1" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54477"/>
     <hyperlink ref="K6" r:id="rId2" display="https://idm.vecv.net/3dspace/common/emxNavigator.jsp?objectId=32252.24286.29541.54766"/>
